--- a/biology/Zoologie/Archaeoctonus_glaber/Archaeoctonus_glaber.xlsx
+++ b/biology/Zoologie/Archaeoctonus_glaber/Archaeoctonus_glaber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeoctonus
 Archaeoctonus glaber, unique représentant du genre Archaeoctonus, est une espèce fossile de scorpions de la famille des Proscorpiidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte à Glencartholm en Écosse. Elle date du Carbonifère[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte à Glencartholm en Écosse. Elle date du Carbonifère.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Archaeoctonus glaber devait mesurer environ 50 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archaeoctonus glaber devait mesurer environ 50 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Eoscorpius glaber par Peach en 1883. Elle est placée dans le genre Archaeoctonus par Pocock en 1911[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Eoscorpius glaber par Peach en 1883. Elle est placée dans le genre Archaeoctonus par Pocock en 1911.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peach, 1883 : « On some new species of fossil scorpions from the Carboniferous rocks of Scotland and the English borders, with a review of the genera Eoscorpius and Mazonia of Messrs. Meek and Worthen. » Transactions of the Royal Society of Edinburgh, vol. 30, p. 397–412 (texte intégral).
 Pocock, 1911  : « A monograph of the terrestrial Carboniferous Arachnida of Great Britain. » Monographs of the Palaeontographical Society, no 64, p. 1–84 (texte intégral).</t>
